--- a/data/trans_orig/P2C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4660B9-74C7-4FAF-9BAC-7DA88DCE7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DCF853-F076-4EDB-AB33-74CB3DAE46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18CAFFAD-0C1D-4C72-9911-3D1509E6E4B6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{659BD0C5-7CB8-47C2-B973-A1600EA9BF97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>69,34%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>28,52%</t>
@@ -416,297 +359,249 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
     <t>53,45%</t>
   </si>
   <si>
@@ -731,183 +626,141 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>34,63%</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>65,37%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
     <t>72,49%</t>
   </si>
   <si>
@@ -1034,322 +887,268 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D6A258-702C-4E64-8EDB-955DC825CAEC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44D4C9D-21BE-45F2-B66F-BB9DB3D9B3DE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="D4" s="7">
-        <v>25179</v>
+        <v>214277</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1894,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="I4" s="7">
-        <v>36113</v>
+        <v>261595</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1909,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>64</v>
+        <v>466</v>
       </c>
       <c r="N4" s="7">
-        <v>61292</v>
+        <v>475872</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="D5" s="7">
-        <v>90179</v>
+        <v>479735</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1945,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>87</v>
+        <v>440</v>
       </c>
       <c r="I5" s="7">
-        <v>76642</v>
+        <v>426756</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1960,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>169</v>
+        <v>913</v>
       </c>
       <c r="N5" s="7">
-        <v>166821</v>
+        <v>906491</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1981,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="D7" s="7">
-        <v>189098</v>
+        <v>294991</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2049,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="I7" s="7">
-        <v>225482</v>
+        <v>337226</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2064,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>402</v>
+        <v>593</v>
       </c>
       <c r="N7" s="7">
-        <v>414581</v>
+        <v>632217</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2085,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>391</v>
+        <v>621</v>
       </c>
       <c r="D8" s="7">
-        <v>389556</v>
+        <v>666809</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2100,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>353</v>
+        <v>590</v>
       </c>
       <c r="I8" s="7">
-        <v>350114</v>
+        <v>631167</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2115,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>744</v>
+        <v>1211</v>
       </c>
       <c r="N8" s="7">
-        <v>739669</v>
+        <v>1297976</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2136,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2166,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2189,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>294991</v>
+        <v>193518</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2204,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="I10" s="7">
-        <v>337226</v>
+        <v>229162</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2219,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>593</v>
+        <v>409</v>
       </c>
       <c r="N10" s="7">
-        <v>632217</v>
+        <v>422680</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2240,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>621</v>
+        <v>459</v>
       </c>
       <c r="D11" s="7">
-        <v>666809</v>
+        <v>484991</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2255,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>590</v>
+        <v>469</v>
       </c>
       <c r="I11" s="7">
-        <v>631167</v>
+        <v>454679</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2270,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1211</v>
+        <v>928</v>
       </c>
       <c r="N11" s="7">
-        <v>1297976</v>
+        <v>939670</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2291,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="D13" s="7">
-        <v>193518</v>
+        <v>252647</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2359,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="I13" s="7">
-        <v>229162</v>
+        <v>338941</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2374,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>409</v>
+        <v>587</v>
       </c>
       <c r="N13" s="7">
-        <v>422680</v>
+        <v>591588</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2395,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>459</v>
+        <v>733</v>
       </c>
       <c r="D14" s="7">
-        <v>484991</v>
+        <v>689575</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2410,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>469</v>
+        <v>671</v>
       </c>
       <c r="I14" s="7">
-        <v>454679</v>
+        <v>699671</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2425,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>928</v>
+        <v>1404</v>
       </c>
       <c r="N14" s="7">
-        <v>939670</v>
+        <v>1389246</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2446,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2493,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>261</v>
+        <v>928</v>
       </c>
       <c r="D16" s="7">
-        <v>252647</v>
+        <v>955433</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1127</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1166924</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>326</v>
-      </c>
-      <c r="I16" s="7">
-        <v>338941</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2055</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2122357</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>587</v>
-      </c>
-      <c r="N16" s="7">
-        <v>591588</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>733</v>
+        <v>2286</v>
       </c>
       <c r="D17" s="7">
-        <v>689575</v>
+        <v>2321110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2170</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2212273</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>671</v>
-      </c>
-      <c r="I17" s="7">
-        <v>699671</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4456</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4533384</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1404</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1389246</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2616,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2631,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2647,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>928</v>
-      </c>
-      <c r="D19" s="7">
-        <v>955433</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1127</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1166924</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2055</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2122357</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2286</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2321111</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2170</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2212274</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4456</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4533383</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2824,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F58424-013A-49F6-A09E-DFF7766A30B5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE11B47-94B9-42B6-A5C2-A11482C626FE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="D4" s="7">
-        <v>53826</v>
+        <v>329943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="I4" s="7">
-        <v>57094</v>
+        <v>362937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>108</v>
+        <v>656</v>
       </c>
       <c r="N4" s="7">
-        <v>110920</v>
+        <v>692880</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="D5" s="7">
-        <v>61939</v>
+        <v>373526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="I5" s="7">
-        <v>54811</v>
+        <v>334113</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>113</v>
+        <v>668</v>
       </c>
       <c r="N5" s="7">
-        <v>116750</v>
+        <v>707639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>258</v>
+        <v>452</v>
       </c>
       <c r="D7" s="7">
-        <v>276117</v>
+        <v>493025</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>290</v>
+        <v>521</v>
       </c>
       <c r="I7" s="7">
-        <v>305843</v>
+        <v>572935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>548</v>
+        <v>973</v>
       </c>
       <c r="N7" s="7">
-        <v>581960</v>
+        <v>1065961</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>294</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>311587</v>
+        <v>524922</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>261</v>
+        <v>419</v>
       </c>
       <c r="I8" s="7">
-        <v>279302</v>
+        <v>459249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>555</v>
+        <v>903</v>
       </c>
       <c r="N8" s="7">
-        <v>590889</v>
+        <v>984170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3252,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>452</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>493025</v>
+        <v>338312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>521</v>
+        <v>380</v>
       </c>
       <c r="I10" s="7">
-        <v>572935</v>
+        <v>413206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>973</v>
+        <v>693</v>
       </c>
       <c r="N10" s="7">
-        <v>1065961</v>
+        <v>751518</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>376</v>
       </c>
       <c r="D11" s="7">
-        <v>524922</v>
+        <v>419311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>419</v>
+        <v>325</v>
       </c>
       <c r="I11" s="7">
-        <v>459249</v>
+        <v>363968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>903</v>
+        <v>701</v>
       </c>
       <c r="N11" s="7">
-        <v>984170</v>
+        <v>783279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3369,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3407,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="D13" s="7">
-        <v>338312</v>
+        <v>373307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="I13" s="7">
-        <v>413206</v>
+        <v>486762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>693</v>
+        <v>829</v>
       </c>
       <c r="N13" s="7">
-        <v>751518</v>
+        <v>860069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>376</v>
+        <v>548</v>
       </c>
       <c r="D14" s="7">
-        <v>419311</v>
+        <v>574432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>325</v>
+        <v>536</v>
       </c>
       <c r="I14" s="7">
-        <v>363968</v>
+        <v>565139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>701</v>
+        <v>1084</v>
       </c>
       <c r="N14" s="7">
-        <v>783279</v>
+        <v>1139571</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3524,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3539,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3556,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>362</v>
+        <v>1444</v>
       </c>
       <c r="D16" s="7">
-        <v>373307</v>
+        <v>1534588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>467</v>
+        <v>1707</v>
       </c>
       <c r="I16" s="7">
-        <v>486762</v>
+        <v>1835841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
-        <v>829</v>
+        <v>3151</v>
       </c>
       <c r="N16" s="7">
-        <v>860069</v>
+        <v>3370428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>548</v>
+        <v>1765</v>
       </c>
       <c r="D17" s="7">
-        <v>574432</v>
+        <v>1892191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
-        <v>536</v>
+        <v>1591</v>
       </c>
       <c r="I17" s="7">
-        <v>565139</v>
+        <v>1722468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1084</v>
+        <v>3356</v>
       </c>
       <c r="N17" s="7">
-        <v>1139571</v>
+        <v>3614660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3679,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3694,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1444</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1534588</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1707</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1835841</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3151</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3370428</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1765</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1892191</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1591</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1722468</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3356</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3614660</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3887,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D51B2-068C-4A87-BF8B-F875A86382EA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16987C76-E3BC-4A2F-9B00-3C51F602E379}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3904,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="D4" s="7">
-        <v>35445</v>
+        <v>228754</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="I4" s="7">
-        <v>45922</v>
+        <v>248483</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="N4" s="7">
-        <v>81367</v>
+        <v>477237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="D5" s="7">
-        <v>81101</v>
+        <v>446046</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>419</v>
       </c>
       <c r="I5" s="7">
-        <v>67438</v>
+        <v>424356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>850</v>
       </c>
       <c r="N5" s="7">
-        <v>148539</v>
+        <v>870402</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="D7" s="7">
-        <v>193308</v>
+        <v>346759</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="I7" s="7">
-        <v>202561</v>
+        <v>450850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>386</v>
+        <v>753</v>
       </c>
       <c r="N7" s="7">
-        <v>395870</v>
+        <v>797609</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>354</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7">
-        <v>364946</v>
+        <v>675672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
-        <v>350</v>
+        <v>547</v>
       </c>
       <c r="I8" s="7">
-        <v>356918</v>
+        <v>592063</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>704</v>
+        <v>1175</v>
       </c>
       <c r="N8" s="7">
-        <v>721863</v>
+        <v>1267735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4315,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="D10" s="7">
-        <v>346759</v>
+        <v>235754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="I10" s="7">
-        <v>450850</v>
+        <v>313479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>753</v>
+        <v>519</v>
       </c>
       <c r="N10" s="7">
-        <v>797609</v>
+        <v>549233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>628</v>
+        <v>477</v>
       </c>
       <c r="D11" s="7">
-        <v>675672</v>
+        <v>523798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="I11" s="7">
-        <v>592063</v>
+        <v>471532</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>1175</v>
+        <v>913</v>
       </c>
       <c r="N11" s="7">
-        <v>1267735</v>
+        <v>995330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4470,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>235754</v>
+        <v>251424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="I13" s="7">
-        <v>313479</v>
+        <v>360792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="N13" s="7">
-        <v>549233</v>
+        <v>612216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>477</v>
+        <v>684</v>
       </c>
       <c r="D14" s="7">
-        <v>523798</v>
+        <v>686143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
-        <v>436</v>
+        <v>620</v>
       </c>
       <c r="I14" s="7">
-        <v>471532</v>
+        <v>682987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
-        <v>913</v>
+        <v>1304</v>
       </c>
       <c r="N14" s="7">
-        <v>995330</v>
+        <v>1369130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4587,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4602,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4619,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="7">
-        <v>251424</v>
+        <v>1062691</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>339</v>
+        <v>1316</v>
       </c>
       <c r="I16" s="7">
-        <v>360792</v>
+        <v>1373604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>587</v>
+        <v>2327</v>
       </c>
       <c r="N16" s="7">
-        <v>612216</v>
+        <v>2436295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>684</v>
+        <v>2220</v>
       </c>
       <c r="D17" s="7">
-        <v>686143</v>
+        <v>2331659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>620</v>
+        <v>2022</v>
       </c>
       <c r="I17" s="7">
-        <v>682987</v>
+        <v>2170938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>1304</v>
+        <v>4242</v>
       </c>
       <c r="N17" s="7">
-        <v>1369130</v>
+        <v>4502597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4742,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4757,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4773,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1011</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1062691</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1316</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1373604</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2327</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2436295</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2220</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2331659</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2022</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2170938</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4502597</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4950,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F272F2-7E02-4562-9F52-7A79268C1EC7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1E00A-13EE-4044-A260-0A35D067D342}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4967,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7">
-        <v>7062</v>
+        <v>83078</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="I4" s="7">
-        <v>16843</v>
+        <v>116125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="N4" s="7">
-        <v>23905</v>
+        <v>199203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>631</v>
       </c>
       <c r="D5" s="7">
-        <v>94920</v>
+        <v>552363</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>209</v>
+        <v>1029</v>
       </c>
       <c r="I5" s="7">
-        <v>113890</v>
+        <v>609205</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>318</v>
+        <v>1660</v>
       </c>
       <c r="N5" s="7">
-        <v>208810</v>
+        <v>1161569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5185,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5200,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5223,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="D7" s="7">
-        <v>81375</v>
+        <v>144948</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="I7" s="7">
-        <v>110291</v>
+        <v>217129</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>268</v>
+        <v>506</v>
       </c>
       <c r="N7" s="7">
-        <v>191666</v>
+        <v>362077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>522</v>
+        <v>801</v>
       </c>
       <c r="D8" s="7">
-        <v>468448</v>
+        <v>1047916</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>820</v>
+        <v>1174</v>
       </c>
       <c r="I8" s="7">
-        <v>509676</v>
+        <v>741522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>1342</v>
+        <v>1975</v>
       </c>
       <c r="N8" s="7">
-        <v>978124</v>
+        <v>1789439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5340,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5355,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5378,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>160112</v>
+        <v>79720</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="I10" s="7">
-        <v>246478</v>
+        <v>321229</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>506</v>
+        <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>406590</v>
+        <v>400949</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>801</v>
+        <v>597</v>
       </c>
       <c r="D11" s="7">
-        <v>879136</v>
+        <v>624960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>1174</v>
+        <v>873</v>
       </c>
       <c r="I11" s="7">
-        <v>813601</v>
+        <v>612137</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>1975</v>
+        <v>1470</v>
       </c>
       <c r="N11" s="7">
-        <v>1692737</v>
+        <v>1237097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5495,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5510,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5533,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
-        <v>86407</v>
+        <v>105188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="I13" s="7">
-        <v>241281</v>
+        <v>138808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="N13" s="7">
-        <v>327687</v>
+        <v>243996</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>597</v>
+        <v>878</v>
       </c>
       <c r="D14" s="7">
-        <v>642365</v>
+        <v>821643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>873</v>
+        <v>1332</v>
       </c>
       <c r="I14" s="7">
-        <v>633090</v>
+        <v>956124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>1470</v>
+        <v>2210</v>
       </c>
       <c r="N14" s="7">
-        <v>1275455</v>
+        <v>1777767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5650,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5665,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5682,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>469</v>
       </c>
       <c r="D16" s="7">
-        <v>113446</v>
+        <v>412934</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>959</v>
       </c>
       <c r="I16" s="7">
-        <v>158922</v>
+        <v>793292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
+        <v>1428</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1206225</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="N16" s="7">
-        <v>272369</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>878</v>
+        <v>2907</v>
       </c>
       <c r="D17" s="7">
-        <v>851957</v>
+        <v>3046883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>1332</v>
+        <v>4408</v>
       </c>
       <c r="I17" s="7">
-        <v>991510</v>
+        <v>2918988</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>2210</v>
+        <v>7315</v>
       </c>
       <c r="N17" s="7">
-        <v>1843466</v>
+        <v>5965872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5805,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5836,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>469</v>
-      </c>
-      <c r="D19" s="7">
-        <v>448402</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>959</v>
-      </c>
-      <c r="I19" s="7">
-        <v>773814</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1428</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1222217</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2907</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2936826</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4408</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3061767</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7315</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5998592</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
